--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Fgf9</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H2">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>10.35080137964889</v>
+        <v>1.716485984687889</v>
       </c>
       <c r="R2">
-        <v>93.15721241684001</v>
+        <v>15.448373862191</v>
       </c>
       <c r="S2">
-        <v>0.8161989011161211</v>
+        <v>0.6659943846714376</v>
       </c>
       <c r="T2">
-        <v>0.8403205285996808</v>
+        <v>0.6964772592171492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H3">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>1.23881694534</v>
+        <v>0.484320807162</v>
       </c>
       <c r="R3">
-        <v>11.14935250806</v>
+        <v>4.358887264458001</v>
       </c>
       <c r="S3">
-        <v>0.09768528951377062</v>
+        <v>0.1879158588108605</v>
       </c>
       <c r="T3">
-        <v>0.1005722428790014</v>
+        <v>0.1965168555776832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H4">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +679,338 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>1.092096102088334</v>
+        <v>0.31539552796</v>
       </c>
       <c r="R4">
-        <v>6.552576612530001</v>
+        <v>1.89237316776</v>
       </c>
       <c r="S4">
-        <v>0.08611580937010824</v>
+        <v>0.1223730647646607</v>
       </c>
       <c r="T4">
-        <v>0.0591072285213179</v>
+        <v>0.08531609145757894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7364236666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.209271</v>
+      </c>
+      <c r="I5">
+        <v>0.9917500467982164</v>
+      </c>
+      <c r="J5">
+        <v>0.9944848646626661</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.162391</v>
+      </c>
+      <c r="O5">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P5">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q5">
+        <v>0.03986285855122223</v>
+      </c>
+      <c r="R5">
+        <v>0.3587657269610001</v>
+      </c>
+      <c r="S5">
+        <v>0.01546673855125776</v>
+      </c>
+      <c r="T5">
+        <v>0.01617465841025463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.006126</v>
+      </c>
+      <c r="H6">
+        <v>0.012252</v>
+      </c>
+      <c r="I6">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J6">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.992521</v>
+      </c>
+      <c r="O6">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P6">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q6">
+        <v>0.014278727882</v>
+      </c>
+      <c r="R6">
+        <v>0.08567236729200001</v>
+      </c>
+      <c r="S6">
+        <v>0.005540128305441787</v>
+      </c>
+      <c r="T6">
+        <v>0.003862468379808775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.006126</v>
+      </c>
+      <c r="H7">
+        <v>0.012252</v>
+      </c>
+      <c r="I7">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J7">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.657666</v>
+      </c>
+      <c r="N7">
+        <v>1.972998</v>
+      </c>
+      <c r="O7">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P7">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q7">
+        <v>0.004028861916</v>
+      </c>
+      <c r="R7">
+        <v>0.024173171496</v>
+      </c>
+      <c r="S7">
+        <v>0.001563193312738</v>
+      </c>
+      <c r="T7">
+        <v>0.001089827601293718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.006126</v>
+      </c>
+      <c r="H8">
+        <v>0.012252</v>
+      </c>
+      <c r="I8">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J8">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.42828</v>
+      </c>
+      <c r="N8">
+        <v>0.85656</v>
+      </c>
+      <c r="O8">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P8">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q8">
+        <v>0.00262364328</v>
+      </c>
+      <c r="R8">
+        <v>0.01049457312</v>
+      </c>
+      <c r="S8">
+        <v>0.0010179702645103</v>
+      </c>
+      <c r="T8">
+        <v>0.0004731392176596974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.006126</v>
+      </c>
+      <c r="H9">
+        <v>0.012252</v>
+      </c>
+      <c r="I9">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J9">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.162391</v>
+      </c>
+      <c r="O9">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P9">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q9">
+        <v>0.000331602422</v>
+      </c>
+      <c r="R9">
+        <v>0.001989614532</v>
+      </c>
+      <c r="S9">
+        <v>0.0001286613190934997</v>
+      </c>
+      <c r="T9">
+        <v>8.970013857170065E-05</v>
       </c>
     </row>
   </sheetData>
